--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{373EAC02-901B-4FC5-82C7-0DA2DACC1DF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{373EAC02-901B-4FC5-82C7-0DA2DACC1DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -621,21 +621,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -699,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -730,22 +715,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,11 +749,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1082,51 +1087,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62706378-9B61-4CE2-96A8-B7B6734B9108}">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -1136,7 +1143,9 @@
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -1146,7 +1155,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -1156,7 +1167,9 @@
         <v>9</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -1166,7 +1179,9 @@
         <v>10</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -1176,7 +1191,9 @@
         <v>6</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -1186,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1196,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -1206,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1216,17 +1233,17 @@
         <v>12</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>2</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1236,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -1246,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -1256,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -1266,17 +1283,17 @@
         <v>47</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -1286,7 +1303,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1296,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -1306,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -1316,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1326,7 +1343,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1336,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -1346,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1356,17 +1373,17 @@
         <v>27</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -1376,7 +1393,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -1386,17 +1403,17 @@
         <v>31</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -1406,7 +1423,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -1416,7 +1433,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -1426,7 +1443,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -1436,7 +1453,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -1446,17 +1463,17 @@
         <v>38</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -1466,17 +1483,17 @@
         <v>40</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -1486,7 +1503,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -1496,7 +1513,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1506,7 +1523,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -1516,7 +1533,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -1526,7 +1543,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
@@ -1536,7 +1553,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
@@ -1546,17 +1563,17 @@
         <v>49</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="13"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="A46" s="21">
         <v>8</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
@@ -1566,7 +1583,7 @@
         <v>65</v>
       </c>
       <c r="C47" s="11"/>
-      <c r="D47" s="13"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
@@ -1576,7 +1593,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
@@ -1586,7 +1603,7 @@
         <v>67</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="D49" s="13"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
@@ -1596,7 +1613,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -1606,17 +1623,17 @@
         <v>69</v>
       </c>
       <c r="C51" s="11"/>
-      <c r="D51" s="13"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+      <c r="A52" s="21">
         <v>9</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
@@ -1626,7 +1643,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="11"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
@@ -1636,7 +1653,7 @@
         <v>78</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
@@ -1646,7 +1663,7 @@
         <v>79</v>
       </c>
       <c r="C55" s="11"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -1656,7 +1673,7 @@
         <v>80</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
@@ -1666,17 +1683,17 @@
         <v>81</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
@@ -1686,7 +1703,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="11"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
@@ -1696,7 +1713,7 @@
         <v>52</v>
       </c>
       <c r="C60" s="11"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
@@ -1706,7 +1723,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="11"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
@@ -1716,7 +1733,7 @@
         <v>54</v>
       </c>
       <c r="C62" s="11"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
@@ -1726,7 +1743,7 @@
         <v>56</v>
       </c>
       <c r="C63" s="11"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
@@ -1736,7 +1753,7 @@
         <v>57</v>
       </c>
       <c r="C64" s="11"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
@@ -1746,7 +1763,7 @@
         <v>59</v>
       </c>
       <c r="C65" s="11"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
@@ -1756,7 +1773,7 @@
         <v>60</v>
       </c>
       <c r="C66" s="11"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
@@ -1766,7 +1783,7 @@
         <v>61</v>
       </c>
       <c r="C67" s="11"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
@@ -1776,7 +1793,7 @@
         <v>62</v>
       </c>
       <c r="C68" s="11"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
@@ -1786,7 +1803,7 @@
         <v>58</v>
       </c>
       <c r="C69" s="11"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
@@ -1796,17 +1813,17 @@
         <v>63</v>
       </c>
       <c r="C70" s="11"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="11"/>
-      <c r="D71" s="13"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
@@ -1816,7 +1833,7 @@
         <v>73</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
@@ -1826,7 +1843,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="11"/>
-      <c r="D73" s="13"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
@@ -1836,7 +1853,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="12"/>
-      <c r="D74" s="14"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
@@ -2003,6 +2020,16 @@
       <c r="A128" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D74">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1203,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9">

--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,9 +1203,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9">

--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>Priority</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>Movement</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>v0.0.5</t>
+  </si>
+  <si>
+    <t>v0.0.6</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -655,24 +664,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -684,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -718,7 +744,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,7 +774,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1085,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62706378-9B61-4CE2-96A8-B7B6734B9108}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,43 +1138,50 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="E1" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="D2" s="23"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -1146,8 +1192,11 @@
       <c r="D4" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -1158,8 +1207,11 @@
       <c r="D5" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
@@ -1170,8 +1222,11 @@
       <c r="D6" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
@@ -1182,8 +1237,11 @@
       <c r="D7" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1.6</v>
       </c>
@@ -1194,8 +1252,11 @@
       <c r="D8" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.7</v>
       </c>
@@ -1203,9 +1264,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1.8</v>
       </c>
@@ -1213,9 +1279,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1.9</v>
       </c>
@@ -1224,8 +1295,9 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -1234,18 +1306,20 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2.1</v>
       </c>
@@ -1254,8 +1328,9 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1264,8 +1339,9 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1274,8 +1350,9 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2.4</v>
       </c>
@@ -1284,18 +1361,20 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -1303,9 +1382,14 @@
         <v>70</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>82</v>
       </c>
@@ -1314,8 +1398,9 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>83</v>
       </c>
@@ -1324,8 +1409,9 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>84</v>
       </c>
@@ -1334,8 +1420,9 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -1344,8 +1431,9 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>86</v>
       </c>
@@ -1354,8 +1442,9 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>87</v>
       </c>
@@ -1364,8 +1453,9 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>88</v>
       </c>
@@ -1374,18 +1464,20 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>89</v>
       </c>
@@ -1394,8 +1486,9 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>90</v>
       </c>
@@ -1404,18 +1497,20 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>91</v>
       </c>
@@ -1424,8 +1519,9 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>100</v>
       </c>
@@ -1434,8 +1530,9 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>101</v>
       </c>
@@ -1444,8 +1541,9 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>102</v>
       </c>
@@ -1454,8 +1552,9 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>103</v>
       </c>
@@ -1464,18 +1563,20 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>92</v>
       </c>
@@ -1484,18 +1585,20 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>93</v>
       </c>
@@ -1504,8 +1607,9 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>104</v>
       </c>
@@ -1514,8 +1618,9 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>105</v>
       </c>
@@ -1524,8 +1629,9 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>106</v>
       </c>
@@ -1534,8 +1640,9 @@
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>107</v>
       </c>
@@ -1544,8 +1651,9 @@
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>108</v>
       </c>
@@ -1554,8 +1662,9 @@
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>109</v>
       </c>
@@ -1564,18 +1673,20 @@
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
         <v>8</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>94</v>
       </c>
@@ -1584,8 +1695,9 @@
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
@@ -1594,8 +1706,9 @@
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>111</v>
       </c>
@@ -1604,8 +1717,9 @@
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="24"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>112</v>
       </c>
@@ -1614,8 +1728,9 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="24"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>113</v>
       </c>
@@ -1624,18 +1739,20 @@
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="24"/>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
         <v>9</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="24"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>114</v>
       </c>
@@ -1644,8 +1761,9 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="24"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>115</v>
       </c>
@@ -1654,8 +1772,9 @@
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>116</v>
       </c>
@@ -1664,8 +1783,9 @@
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="24"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>117</v>
       </c>
@@ -1674,8 +1794,9 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="24"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>118</v>
       </c>
@@ -1684,18 +1805,20 @@
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="24"/>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="24"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="28"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>95</v>
       </c>
@@ -1704,8 +1827,9 @@
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="24"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>96</v>
       </c>
@@ -1714,8 +1838,9 @@
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>97</v>
       </c>
@@ -1724,8 +1849,9 @@
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>119</v>
       </c>
@@ -1734,8 +1860,9 @@
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="24"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>120</v>
       </c>
@@ -1744,8 +1871,9 @@
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="24"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="28"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>121</v>
       </c>
@@ -1754,8 +1882,9 @@
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="24"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -1764,8 +1893,9 @@
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="24"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>123</v>
       </c>
@@ -1774,8 +1904,9 @@
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="24"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="28"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>124</v>
       </c>
@@ -1784,8 +1915,9 @@
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="24"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>125</v>
       </c>
@@ -1794,8 +1926,9 @@
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="24"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>126</v>
       </c>
@@ -1804,8 +1937,9 @@
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="24"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
@@ -1814,18 +1948,20 @@
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="24"/>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="28"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>99</v>
       </c>
@@ -1834,8 +1970,9 @@
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="24"/>
-    </row>
-    <row r="73" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>128</v>
       </c>
@@ -1844,8 +1981,9 @@
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="28"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>129</v>
       </c>
@@ -1853,26 +1991,27 @@
         <v>75</v>
       </c>
       <c r="C74" s="12"/>
-      <c r="D74" s="24"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="26"/>
+      <c r="E74" s="29"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="6"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>Priority</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Movement: Walk left</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Combat: Meele hit collision</t>
   </si>
   <si>
-    <t>1.10</t>
-  </si>
-  <si>
     <t>Combat</t>
   </si>
   <si>
@@ -432,13 +426,19 @@
   </si>
   <si>
     <t>v0.0.6</t>
+  </si>
+  <si>
+    <t>v0.0.9</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,16 +480,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -683,7 +701,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -695,22 +726,74 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -738,59 +821,96 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1124,880 +1244,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62706378-9B61-4CE2-96A8-B7B6734B9108}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="24">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="D4" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="24">
+        <v>4</v>
+      </c>
+      <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="D5" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1.4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="24">
+        <v>8</v>
+      </c>
+      <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="D6" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1.5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="24">
+        <v>9</v>
+      </c>
+      <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="D7" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1.6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="24">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="D8" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="24">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="D9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1.8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="24">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>2</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>2</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="28"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="28"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="28"/>
+        <v>33</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>39</v>
+      <c r="A36" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="28"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="28"/>
+        <v>48</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="28"/>
+        <v>46</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="28"/>
+        <v>42</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="16">
         <v>8</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="28"/>
+        <v>62</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="28"/>
+        <v>64</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="16">
         <v>9</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="28"/>
+        <v>79</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>71</v>
+      <c r="A58" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="28"/>
+        <v>49</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="17"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="17"/>
     </row>
     <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>98</v>
+      <c r="A71" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="28"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="17"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -2159,20 +2314,17 @@
       <c r="A128" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C3:C14">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D74">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C17:C74">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A12" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>Priority</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>While SHIFT-Running and attacking, the SHIFT-Speed is gone, and character slows down. Run speed needs to stay the same while attacking</t>
+  </si>
+  <si>
+    <t>Found in Version 0.0.9</t>
   </si>
 </sst>
 </file>
@@ -507,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -788,14 +800,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,13 +931,79 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1244,1083 +1334,1576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62706378-9B61-4CE2-96A8-B7B6734B9108}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="32"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="16" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1.2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1.3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>1</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>1.4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>1.5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>1</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>1.6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>1</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>1.7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>1</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>1.8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2.1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>1</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>1</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>1</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>2.4</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>0.5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>2.5</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>0.5</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="D16" s="36"/>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>2.6</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>1</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="17"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="17"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="17"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="17"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="24"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="17"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="17"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="17"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="17"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="17"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="17"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="17"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="17"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>8</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="24"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="17"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="17"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="17"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="17"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="17"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>9</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="24"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="17"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="16"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="17"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="17"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="17"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="17"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="23"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="17"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="17"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="16"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="17"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="17"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="16"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="17"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="16"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="C65" s="24"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="17"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="C67" s="24"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="C68" s="24"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="17"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="C69" s="24"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="C70" s="25"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="C71" s="26"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="C72" s="24"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+      <c r="C73" s="24"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="18"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="6"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="17"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5"/>
+      <c r="E75" s="2"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" s="40"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>1</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="50">
+        <v>0</v>
+      </c>
+      <c r="D77" s="38"/>
+      <c r="E77" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="40"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="45"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="45"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="45"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="45"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="45"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="45"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="45"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="45"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="46"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="47"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="47"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="47"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="48"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="48"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="47"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="46"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="47"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="47"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="47"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="47"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="47"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="47"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="47"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="47"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="46"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="47"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="47"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="46"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="47"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="47"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="47"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="47"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="47"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="46"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="47"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="46"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="47"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="47"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="47"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="47"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="47"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="47"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="47"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="46"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="47"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="47"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="47"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="47"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="47"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="46"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="47"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="47"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="47"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="47"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="47"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="45"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="47"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="47"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="47"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="47"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="47"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="47"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="47"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="47"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="47"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="47"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="47"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="47"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="46"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="47"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="47"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="42"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="49"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C14">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C74">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:C149">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
   <si>
     <t>Priority</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>Found in Version 0.0.9</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Character: Inventory System</t>
+  </si>
+  <si>
+    <t>v0.0.11</t>
   </si>
 </sst>
 </file>
@@ -973,27 +982,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1334,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62706378-9B61-4CE2-96A8-B7B6734B9108}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,10 +1616,14 @@
         <v>80</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="36"/>
+        <v>141</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>142</v>
+      </c>
       <c r="E20" s="16"/>
       <c r="F20" s="2"/>
     </row>
@@ -1639,7 +1632,7 @@
         <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="36"/>
@@ -1651,7 +1644,7 @@
         <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="36"/>
@@ -1663,7 +1656,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="36"/>
@@ -1675,7 +1668,7 @@
         <v>84</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="36"/>
@@ -1687,7 +1680,7 @@
         <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="36"/>
@@ -1699,74 +1692,75 @@
         <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="25"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="24"/>
       <c r="D26" s="36"/>
       <c r="E26" s="16"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="24"/>
       <c r="D29" s="36"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="16"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="36"/>
@@ -1774,10 +1768,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="36"/>
@@ -1785,10 +1779,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="36"/>
@@ -1796,76 +1790,78 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="C35" s="24"/>
       <c r="D35" s="36"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B39" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="C40" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D40" s="36"/>
       <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="36"/>
@@ -1873,21 +1869,23 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C42" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D42" s="36"/>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="36"/>
@@ -1895,10 +1893,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="36"/>
@@ -1906,43 +1904,43 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="24"/>
       <c r="D45" s="36"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
         <v>8</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B47" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="23"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="16"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="36"/>
@@ -1950,10 +1948,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="36"/>
@@ -1961,10 +1959,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="36"/>
@@ -1972,43 +1970,43 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="C51" s="24"/>
       <c r="D51" s="36"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
         <v>9</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="16"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="36"/>
@@ -2016,10 +2014,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="36"/>
@@ -2027,10 +2025,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="36"/>
@@ -2038,43 +2036,43 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="C57" s="24"/>
       <c r="D57" s="36"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B59" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="22"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="16"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="36"/>
@@ -2082,10 +2080,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="36"/>
@@ -2093,10 +2091,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="36"/>
@@ -2104,10 +2102,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="36"/>
@@ -2115,10 +2113,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="36"/>
@@ -2126,10 +2124,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="36"/>
@@ -2137,10 +2135,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="36"/>
@@ -2148,10 +2146,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="36"/>
@@ -2159,10 +2157,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="36"/>
@@ -2170,10 +2168,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="36"/>
@@ -2181,110 +2179,112 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="C70" s="24"/>
       <c r="D70" s="36"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B72" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="23"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="C72" s="26"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="23"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="36"/>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="17"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="5"/>
-      <c r="E75" s="2"/>
-      <c r="G75" s="40"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="17"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>135</v>
-      </c>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5"/>
+      <c r="E76" s="2"/>
       <c r="G76" s="40"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
-        <v>1</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="50">
-        <v>0</v>
-      </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="44" t="s">
-        <v>139</v>
+    <row r="77" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="G77" s="40"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="50"/>
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="50">
+        <v>0</v>
+      </c>
       <c r="D78" s="38"/>
-      <c r="E78" s="45"/>
+      <c r="E78" s="44" t="s">
+        <v>139</v>
+      </c>
       <c r="G78" s="40"/>
       <c r="H78" s="2"/>
     </row>
@@ -2307,7 +2307,7 @@
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="50"/>
       <c r="D81" s="38"/>
@@ -2316,7 +2316,7 @@
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="4"/>
       <c r="C82" s="50"/>
       <c r="D82" s="38"/>
@@ -2343,7 +2343,7 @@
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="50"/>
       <c r="D85" s="38"/>
@@ -2352,11 +2352,11 @@
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="4"/>
       <c r="C86" s="50"/>
       <c r="D86" s="38"/>
-      <c r="E86" s="46"/>
+      <c r="E86" s="45"/>
       <c r="G86" s="40"/>
       <c r="H86" s="2"/>
     </row>
@@ -2365,7 +2365,7 @@
       <c r="B87" s="4"/>
       <c r="C87" s="50"/>
       <c r="D87" s="38"/>
-      <c r="E87" s="47"/>
+      <c r="E87" s="46"/>
       <c r="G87" s="40"/>
       <c r="H87" s="2"/>
     </row>
@@ -2379,7 +2379,7 @@
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="50"/>
       <c r="D89" s="38"/>
@@ -2388,11 +2388,11 @@
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="4"/>
       <c r="C90" s="50"/>
       <c r="D90" s="38"/>
-      <c r="E90" s="48"/>
+      <c r="E90" s="47"/>
       <c r="G90" s="40"/>
       <c r="H90" s="2"/>
     </row>
@@ -2410,25 +2410,25 @@
       <c r="B92" s="4"/>
       <c r="C92" s="50"/>
       <c r="D92" s="38"/>
-      <c r="E92" s="47"/>
+      <c r="E92" s="48"/>
       <c r="G92" s="40"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="4"/>
       <c r="C93" s="50"/>
       <c r="D93" s="38"/>
-      <c r="E93" s="46"/>
+      <c r="E93" s="47"/>
       <c r="G93" s="40"/>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="4"/>
       <c r="C94" s="50"/>
       <c r="D94" s="38"/>
-      <c r="E94" s="47"/>
+      <c r="E94" s="46"/>
       <c r="G94" s="40"/>
       <c r="H94" s="2"/>
     </row>
@@ -2451,7 +2451,7 @@
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="4"/>
       <c r="C97" s="50"/>
       <c r="D97" s="38"/>
@@ -2460,7 +2460,7 @@
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="4"/>
       <c r="C98" s="50"/>
       <c r="D98" s="38"/>
@@ -2487,7 +2487,7 @@
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="4"/>
       <c r="C101" s="50"/>
       <c r="D101" s="38"/>
@@ -2496,11 +2496,11 @@
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="4"/>
       <c r="C102" s="50"/>
       <c r="D102" s="38"/>
-      <c r="E102" s="46"/>
+      <c r="E102" s="47"/>
       <c r="G102" s="40"/>
       <c r="H102" s="2"/>
     </row>
@@ -2509,7 +2509,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="50"/>
       <c r="D103" s="38"/>
-      <c r="E103" s="47"/>
+      <c r="E103" s="46"/>
       <c r="G103" s="40"/>
       <c r="H103" s="2"/>
     </row>
@@ -2519,24 +2519,24 @@
       <c r="C104" s="50"/>
       <c r="D104" s="38"/>
       <c r="E104" s="47"/>
-      <c r="G104" s="2"/>
+      <c r="G104" s="40"/>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="4"/>
       <c r="C105" s="50"/>
       <c r="D105" s="38"/>
-      <c r="E105" s="46"/>
+      <c r="E105" s="47"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="4"/>
       <c r="C106" s="50"/>
       <c r="D106" s="38"/>
-      <c r="E106" s="47"/>
+      <c r="E106" s="46"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
@@ -2559,7 +2559,7 @@
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="4"/>
       <c r="C109" s="50"/>
       <c r="D109" s="38"/>
@@ -2568,7 +2568,7 @@
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="4"/>
       <c r="C110" s="50"/>
       <c r="D110" s="38"/>
@@ -2581,7 +2581,7 @@
       <c r="B111" s="4"/>
       <c r="C111" s="50"/>
       <c r="D111" s="38"/>
-      <c r="E111" s="46"/>
+      <c r="E111" s="47"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
@@ -2590,25 +2590,25 @@
       <c r="B112" s="4"/>
       <c r="C112" s="50"/>
       <c r="D112" s="38"/>
-      <c r="E112" s="47"/>
+      <c r="E112" s="46"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="4"/>
       <c r="C113" s="50"/>
       <c r="D113" s="38"/>
-      <c r="E113" s="46"/>
+      <c r="E113" s="47"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="4"/>
       <c r="C114" s="50"/>
       <c r="D114" s="38"/>
-      <c r="E114" s="47"/>
+      <c r="E114" s="46"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
@@ -2631,7 +2631,7 @@
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="4"/>
       <c r="C117" s="50"/>
       <c r="D117" s="38"/>
@@ -2640,7 +2640,7 @@
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="10"/>
       <c r="B118" s="4"/>
       <c r="C118" s="50"/>
       <c r="D118" s="38"/>
@@ -2667,20 +2667,20 @@
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="4"/>
       <c r="C121" s="50"/>
       <c r="D121" s="38"/>
-      <c r="E121" s="46"/>
+      <c r="E121" s="47"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="10"/>
       <c r="B122" s="4"/>
       <c r="C122" s="50"/>
       <c r="D122" s="38"/>
-      <c r="E122" s="47"/>
+      <c r="E122" s="46"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
@@ -2703,7 +2703,7 @@
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="4"/>
       <c r="C125" s="50"/>
       <c r="D125" s="38"/>
@@ -2712,7 +2712,7 @@
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="10"/>
       <c r="B126" s="4"/>
       <c r="C126" s="50"/>
       <c r="D126" s="38"/>
@@ -2725,7 +2725,7 @@
       <c r="B127" s="4"/>
       <c r="C127" s="50"/>
       <c r="D127" s="38"/>
-      <c r="E127" s="46"/>
+      <c r="E127" s="47"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
@@ -2734,12 +2734,12 @@
       <c r="B128" s="4"/>
       <c r="C128" s="50"/>
       <c r="D128" s="38"/>
-      <c r="E128" s="47"/>
+      <c r="E128" s="46"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="4"/>
       <c r="C129" s="50"/>
       <c r="D129" s="38"/>
@@ -2748,7 +2748,7 @@
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="4"/>
       <c r="C130" s="50"/>
       <c r="D130" s="38"/>
@@ -2771,20 +2771,22 @@
       <c r="C132" s="50"/>
       <c r="D132" s="38"/>
       <c r="E132" s="47"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="4"/>
       <c r="C133" s="50"/>
       <c r="D133" s="38"/>
-      <c r="E133" s="45"/>
+      <c r="E133" s="47"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="4"/>
       <c r="C134" s="50"/>
       <c r="D134" s="38"/>
-      <c r="E134" s="47"/>
+      <c r="E134" s="45"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
@@ -2801,14 +2803,14 @@
       <c r="E136" s="47"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="4"/>
       <c r="C137" s="50"/>
       <c r="D137" s="38"/>
       <c r="E137" s="47"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="4"/>
       <c r="C138" s="50"/>
       <c r="D138" s="38"/>
@@ -2829,14 +2831,14 @@
       <c r="E140" s="47"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="4"/>
       <c r="C141" s="50"/>
       <c r="D141" s="38"/>
       <c r="E141" s="47"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="4"/>
       <c r="C142" s="50"/>
       <c r="D142" s="38"/>
@@ -2857,25 +2859,25 @@
       <c r="E144" s="47"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="4"/>
       <c r="C145" s="50"/>
       <c r="D145" s="38"/>
       <c r="E145" s="47"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="10"/>
       <c r="B146" s="4"/>
       <c r="C146" s="50"/>
       <c r="D146" s="38"/>
-      <c r="E146" s="46"/>
+      <c r="E146" s="47"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="4"/>
       <c r="C147" s="50"/>
       <c r="D147" s="38"/>
-      <c r="E147" s="47"/>
+      <c r="E147" s="46"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
@@ -2884,25 +2886,32 @@
       <c r="D148" s="38"/>
       <c r="E148" s="47"/>
     </row>
-    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="42"/>
-      <c r="B149" s="7"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="4"/>
       <c r="C149" s="50"/>
-      <c r="D149" s="43"/>
-      <c r="E149" s="49"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="47"/>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="42"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="49"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C14">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C74">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="C17:C39 C41 C43:C75">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77:C149">
+  <conditionalFormatting sqref="C78:C150">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
   <si>
     <t>Priority</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>v0.0.11</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Items in Inventory need position fixing. Obj_Item is created and has a fix position. Setting the position relative to the players position, has somehow negative effects on Hover-Info and doesnt show the Item Info anymore.</t>
+  </si>
+  <si>
+    <t>Found in Version 0.0.12</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62706378-9B61-4CE2-96A8-B7B6734B9108}">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,12 +2297,20 @@
       <c r="G78" s="40"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="50"/>
+    <row r="79" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="50">
+        <v>0</v>
+      </c>
       <c r="D79" s="38"/>
-      <c r="E79" s="45"/>
+      <c r="E79" s="45" t="s">
+        <v>145</v>
+      </c>
       <c r="G79" s="40"/>
       <c r="H79" s="2"/>
     </row>

--- a/docs/Dungeon-Cards_TODO-List.xlsx
+++ b/docs/Dungeon-Cards_TODO-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="149">
   <si>
     <t>Priority</t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>Found in Version 0.0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hovering over a Item, should highlight that Item with a "hovering" sprite. Current implementation changes all Items of the same type to that "hovering" sprite, not just the Item hovering over. </t>
+  </si>
+  <si>
+    <t>Found in Version 0.0.13</t>
+  </si>
+  <si>
+    <t>0.0.13</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1344,7 @@
   <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,21 +2314,31 @@
         <v>144</v>
       </c>
       <c r="C79" s="50">
-        <v>0</v>
-      </c>
-      <c r="D79" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>148</v>
+      </c>
       <c r="E79" s="45" t="s">
         <v>145</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="50"/>
+    <row r="80" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="50">
+        <v>0</v>
+      </c>
       <c r="D80" s="38"/>
-      <c r="E80" s="45"/>
+      <c r="E80" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="G80" s="40"/>
       <c r="H80" s="2"/>
     </row>
